--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 11,62</t>
+          <t>1,14; 11,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,51</t>
+          <t>3,07; 15,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,7</t>
+          <t>-0,25; 10,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 20,1</t>
+          <t>5,54; 20,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 22,12</t>
+          <t>6,5; 21,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,4</t>
+          <t>-2,18; 6,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,34</t>
+          <t>4,64; 13,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,84</t>
+          <t>6,15; 16,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,67</t>
+          <t>0,21; 7,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; —</t>
+          <t>-23,72; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,36; —</t>
+          <t>19,18; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,35; —</t>
+          <t>-61,38; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 1709,69</t>
+          <t>71,41; 1788,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 1606,15</t>
+          <t>66,85; 1820,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 621,83</t>
+          <t>-38,75; 638,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,49; 1238,45</t>
+          <t>87,03; 1255,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>119,13; 1249,04</t>
+          <t>130,59; 1427,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 581,25</t>
+          <t>-6,57; 576,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,26</t>
+          <t>1,11; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,79</t>
+          <t>2,08; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,27</t>
+          <t>3,33; 9,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 11,31</t>
+          <t>3,79; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,88</t>
+          <t>3,9; 10,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,85</t>
+          <t>4,95; 10,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,07</t>
+          <t>3,51; 8,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,44</t>
+          <t>3,78; 8,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,04</t>
+          <t>5,09; 9,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 225,16</t>
+          <t>18,15; 221,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,86; 222,18</t>
+          <t>33,06; 243,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57,5; 279,57</t>
+          <t>55,84; 291,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,59; 232,4</t>
+          <t>50,3; 222,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,41; 227,23</t>
+          <t>46,38; 226,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,26; 229,69</t>
+          <t>60,68; 235,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,57; 177,9</t>
+          <t>56,46; 190,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,46; 187,5</t>
+          <t>58,04; 191,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,74; 202,15</t>
+          <t>82,81; 217,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,46</t>
+          <t>-0,08; 4,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,64</t>
+          <t>-2,76; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,33</t>
+          <t>1,05; 6,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,18</t>
+          <t>2,02; 7,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,06</t>
+          <t>-2,04; 3,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,55</t>
+          <t>3,71; 9,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>1,54; 5,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,72</t>
+          <t>-1,58; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,23</t>
+          <t>3,08; 6,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 92,86</t>
+          <t>-3,38; 99,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 33,66</t>
+          <t>-39,34; 34,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 131,0</t>
+          <t>12,75; 128,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 111,87</t>
+          <t>19,69; 104,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 43,31</t>
+          <t>-20,91; 39,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,68; 127,76</t>
+          <t>34,85; 129,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 81,0</t>
+          <t>18,91; 84,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 27,2</t>
+          <t>-18,89; 25,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,3; 112,74</t>
+          <t>38,19; 106,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,3</t>
+          <t>-1,07; 4,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,03</t>
+          <t>-0,96; 4,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,1</t>
+          <t>2,92; 9,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,94</t>
+          <t>0,42; 6,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,27</t>
+          <t>0,12; 6,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,54</t>
+          <t>-1,11; 6,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,89</t>
+          <t>0,93; 4,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,72</t>
+          <t>0,52; 4,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,88</t>
+          <t>2,05; 6,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 109,19</t>
+          <t>-17,53; 111,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 107,44</t>
+          <t>-17,23; 114,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,34; 225,75</t>
+          <t>41,4; 237,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 109,62</t>
+          <t>3,49; 104,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 98,21</t>
+          <t>-0,95; 97,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 103,67</t>
+          <t>-11,62; 103,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 92,81</t>
+          <t>12,59; 88,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 90,24</t>
+          <t>7,04; 84,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,38; 126,01</t>
+          <t>29,36; 127,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,3</t>
+          <t>1,74; 6,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,43</t>
+          <t>0,91; 5,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,83</t>
+          <t>4,71; 9,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,31</t>
+          <t>0,54; 6,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,17</t>
+          <t>0,12; 5,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,63</t>
+          <t>3,15; 8,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>1,73; 5,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,08</t>
+          <t>1,31; 4,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,42</t>
+          <t>4,73; 8,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,63; 156,04</t>
+          <t>29,85; 153,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,93; 138,77</t>
+          <t>13,28; 142,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69,8; 252,92</t>
+          <t>78,36; 243,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,23; 67,71</t>
+          <t>3,31; 71,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 67,13</t>
+          <t>0,91; 64,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,61; 92,13</t>
+          <t>25,86; 94,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,67; 74,87</t>
+          <t>18,57; 75,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,08; 72,19</t>
+          <t>15,03; 67,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>53,95; 118,73</t>
+          <t>52,52; 124,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,72; 4,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>0,94; 3,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,24</t>
+          <t>4,29; 7,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,3; 6,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,91; 4,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,21</t>
+          <t>3,96; 7,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>2,94; 4,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,88; 3,81</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,73</t>
+          <t>4,57; 6,8</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>29,86; 90,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>15,67; 76,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>77,48; 161,57</t>
+          <t>75,65; 155,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>35,77; 84,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>21,0; 63,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>43,42; 92,6</t>
+          <t>43,56; 90,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>40,52; 77,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>24,99; 60,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>64,9; 105,33</t>
+          <t>62,67; 106,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 11,66</t>
+          <t>1,43; 12,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 15,5</t>
+          <t>2,97; 15,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,69</t>
+          <t>-0,51; 10,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 20,79</t>
+          <t>4,85; 20,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 21,89</t>
+          <t>6,22; 21,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,08</t>
+          <t>-1,97; 6,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,55</t>
+          <t>4,76; 14,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 16,12</t>
+          <t>6,4; 16,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,04</t>
+          <t>0,2; 6,88</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,72; —</t>
+          <t>-12,21; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,18; —</t>
+          <t>9,55; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,38; —</t>
+          <t>-61,87; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,41; 1788,68</t>
+          <t>50,74; 1666,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,85; 1820,32</t>
+          <t>71,01; 1684,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 638,6</t>
+          <t>-44,72; 540,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,03; 1255,06</t>
+          <t>94,35; 1115,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>130,59; 1427,53</t>
+          <t>134,03; 1344,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 576,46</t>
+          <t>-7,22; 630,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,04</t>
+          <t>1,18; 6,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,13</t>
+          <t>2,07; 8,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,51</t>
+          <t>3,24; 9,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,35</t>
+          <t>3,97; 11,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,89</t>
+          <t>3,72; 10,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,75</t>
+          <t>4,84; 10,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,08</t>
+          <t>3,63; 8,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,32</t>
+          <t>4,05; 8,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,44</t>
+          <t>4,96; 9,28</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 221,7</t>
+          <t>19,27; 204,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 243,4</t>
+          <t>36,57; 240,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 291,77</t>
+          <t>50,01; 294,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,3; 222,87</t>
+          <t>50,98; 225,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,38; 226,03</t>
+          <t>48,55; 213,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,68; 235,31</t>
+          <t>62,26; 234,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,46; 190,3</t>
+          <t>57,12; 177,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,04; 191,49</t>
+          <t>64,88; 189,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,81; 217,46</t>
+          <t>76,88; 206,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,76</t>
+          <t>-0,17; 4,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,67</t>
+          <t>-2,6; 1,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,57</t>
+          <t>0,89; 6,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,68</t>
+          <t>1,9; 7,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,03</t>
+          <t>-2,25; 3,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,34</t>
+          <t>3,61; 9,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,44</t>
+          <t>1,62; 5,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,64</t>
+          <t>-1,71; 1,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,89</t>
+          <t>3,13; 7,0</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 99,61</t>
+          <t>-3,98; 93,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 34,28</t>
+          <t>-37,32; 33,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,75; 128,07</t>
+          <t>12,26; 125,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,69; 104,4</t>
+          <t>18,48; 106,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 39,78</t>
+          <t>-21,54; 41,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,85; 129,35</t>
+          <t>33,11; 122,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 84,0</t>
+          <t>18,98; 85,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 25,26</t>
+          <t>-21,03; 25,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,19; 106,46</t>
+          <t>36,38; 108,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,41</t>
+          <t>-0,83; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,31</t>
+          <t>-0,78; 4,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 9,24</t>
+          <t>2,87; 9,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,68</t>
+          <t>0,64; 6,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,24</t>
+          <t>0,41; 6,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,6</t>
+          <t>-0,78; 6,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,93</t>
+          <t>0,83; 5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,56</t>
+          <t>0,59; 4,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,93</t>
+          <t>2,14; 6,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 111,83</t>
+          <t>-13,55; 109,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 114,31</t>
+          <t>-13,54; 115,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,4; 237,59</t>
+          <t>43,15; 242,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,49; 104,32</t>
+          <t>6,36; 107,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 97,47</t>
+          <t>4,05; 99,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 103,59</t>
+          <t>-6,63; 108,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,59; 88,1</t>
+          <t>11,7; 95,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 84,69</t>
+          <t>8,14; 86,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,36; 127,27</t>
+          <t>31,5; 129,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,2</t>
+          <t>1,58; 6,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,63</t>
+          <t>1,01; 5,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,73</t>
+          <t>4,58; 9,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,44</t>
+          <t>0,3; 5,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,87</t>
+          <t>-0,01; 6,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,74</t>
+          <t>3,02; 8,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,45</t>
+          <t>1,83; 5,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,84</t>
+          <t>1,15; 4,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,77</t>
+          <t>4,8; 8,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,85; 153,41</t>
+          <t>25,08; 153,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,28; 142,66</t>
+          <t>18,51; 131,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>78,36; 243,94</t>
+          <t>69,9; 228,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,31; 71,14</t>
+          <t>2,54; 64,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,91; 64,12</t>
+          <t>-1,26; 66,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,86; 94,96</t>
+          <t>25,01; 94,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,57; 75,44</t>
+          <t>21,54; 76,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15,03; 67,04</t>
+          <t>14,06; 69,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>52,52; 124,71</t>
+          <t>54,88; 123,82</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,08</t>
+          <t>1,76; 4,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,39</t>
+          <t>1,09; 3,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,07</t>
+          <t>4,21; 6,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,54</t>
+          <t>3,26; 6,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,86</t>
+          <t>1,72; 4,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,2</t>
+          <t>3,97; 7,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,96</t>
+          <t>2,99; 4,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,81</t>
+          <t>1,87; 3,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,8</t>
+          <t>4,63; 6,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,86; 90,78</t>
+          <t>31,96; 92,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,67; 76,26</t>
+          <t>19,85; 75,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>75,65; 155,95</t>
+          <t>74,96; 153,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,77; 84,89</t>
+          <t>35,33; 80,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,0; 63,48</t>
+          <t>19,29; 60,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>43,56; 90,77</t>
+          <t>44,17; 90,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>40,52; 77,82</t>
+          <t>41,25; 78,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>24,99; 60,13</t>
+          <t>26,05; 59,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>62,67; 106,93</t>
+          <t>64,98; 106,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 12,27</t>
+          <t>0,86; 11,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 15,48</t>
+          <t>3,27; 15,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 10,81</t>
+          <t>-0,44; 10,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,58</t>
+          <t>5,0; 20,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 21,9</t>
+          <t>6,35; 22,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,04</t>
+          <t>-2,12; 6,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 14,08</t>
+          <t>3,96; 14,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 16,44</t>
+          <t>6,0; 16,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,88</t>
+          <t>-0,11; 6,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,21; —</t>
+          <t>-44,41; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,55; —</t>
+          <t>15,36; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,87; —</t>
+          <t>-65,35; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 1666,89</t>
+          <t>66,96; 1709,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,01; 1684,78</t>
+          <t>64,15; 1606,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 540,52</t>
+          <t>-42,64; 621,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,35; 1115,05</t>
+          <t>74,49; 1238,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>134,03; 1344,38</t>
+          <t>119,13; 1249,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 630,97</t>
+          <t>-12,11; 581,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,88</t>
+          <t>1,33; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,07</t>
+          <t>2,19; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,54</t>
+          <t>3,16; 9,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 11,07</t>
+          <t>4,06; 11,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,74</t>
+          <t>3,9; 10,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,63</t>
+          <t>4,88; 10,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,03</t>
+          <t>3,39; 8,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,45</t>
+          <t>3,95; 8,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,28</t>
+          <t>5,03; 9,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 204,67</t>
+          <t>22,6; 225,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,57; 240,54</t>
+          <t>38,86; 222,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,01; 294,6</t>
+          <t>57,5; 279,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,98; 225,35</t>
+          <t>48,59; 232,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,55; 213,1</t>
+          <t>52,41; 227,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,26; 234,35</t>
+          <t>57,26; 229,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,12; 177,72</t>
+          <t>54,57; 177,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,88; 189,36</t>
+          <t>63,46; 187,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,88; 206,94</t>
+          <t>78,74; 202,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,68</t>
+          <t>-0,22; 4,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,65</t>
+          <t>-2,77; 1,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,26</t>
+          <t>0,89; 6,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,75</t>
+          <t>1,68; 8,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,04</t>
+          <t>-2,33; 3,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,13</t>
+          <t>3,67; 9,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,55</t>
+          <t>1,7; 5,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,67</t>
+          <t>-1,63; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,0</t>
+          <t>3,16; 7,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 93,0</t>
+          <t>-3,12; 92,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 33,38</t>
+          <t>-39,25; 33,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,26; 125,72</t>
+          <t>13,96; 131,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 106,5</t>
+          <t>15,76; 111,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 41,41</t>
+          <t>-23,2; 43,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,11; 122,21</t>
+          <t>34,68; 127,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,98; 85,76</t>
+          <t>20,11; 81,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 25,92</t>
+          <t>-19,65; 27,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,38; 108,01</t>
+          <t>38,3; 112,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,38</t>
+          <t>-0,87; 4,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,41</t>
+          <t>-0,89; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,31</t>
+          <t>3,02; 9,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,86</t>
+          <t>0,82; 6,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,3</t>
+          <t>0,26; 6,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,77</t>
+          <t>-1,15; 6,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,01</t>
+          <t>0,79; 4,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,68</t>
+          <t>0,57; 4,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,91</t>
+          <t>1,83; 6,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 109,68</t>
+          <t>-15,32; 109,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 115,19</t>
+          <t>-14,05; 107,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,15; 242,16</t>
+          <t>43,34; 225,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 107,45</t>
+          <t>7,97; 109,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 99,85</t>
+          <t>0,12; 98,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 108,7</t>
+          <t>-9,24; 103,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,7; 95,3</t>
+          <t>9,97; 92,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,14; 86,52</t>
+          <t>6,92; 90,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,5; 129,35</t>
+          <t>27,38; 126,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,24</t>
+          <t>1,55; 6,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,32</t>
+          <t>0,93; 5,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,54</t>
+          <t>4,68; 9,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,94</t>
+          <t>0,2; 6,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,09</t>
+          <t>-0,07; 6,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,74</t>
+          <t>3,02; 8,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,55</t>
+          <t>1,63; 5,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,96</t>
+          <t>1,23; 5,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,65</t>
+          <t>4,74; 8,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,08; 153,0</t>
+          <t>22,63; 156,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,51; 131,99</t>
+          <t>16,93; 138,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69,9; 228,34</t>
+          <t>69,8; 252,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,54; 64,11</t>
+          <t>1,23; 67,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 66,38</t>
+          <t>-0,7; 67,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,01; 94,31</t>
+          <t>24,61; 92,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>21,54; 76,43</t>
+          <t>17,67; 74,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,06; 69,16</t>
+          <t>13,08; 72,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>54,88; 123,82</t>
+          <t>53,95; 118,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,17</t>
+          <t>1,77; 4,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,41</t>
+          <t>1,15; 3,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,93</t>
+          <t>4,32; 7,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,47</t>
+          <t>3,32; 6,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,7</t>
+          <t>1,77; 4,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,08</t>
+          <t>4,03; 7,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,97</t>
+          <t>2,96; 4,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,75</t>
+          <t>1,85; 3,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,78</t>
+          <t>4,63; 6,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,96; 92,58</t>
+          <t>30,93; 94,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,85; 75,98</t>
+          <t>21,24; 80,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>74,96; 153,0</t>
+          <t>77,48; 161,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,33; 80,89</t>
+          <t>35,59; 83,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,29; 60,44</t>
+          <t>18,96; 60,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>44,17; 90,87</t>
+          <t>43,42; 92,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>41,25; 78,08</t>
+          <t>40,59; 75,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>26,05; 59,28</t>
+          <t>24,64; 58,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>64,98; 106,38</t>
+          <t>64,9; 105,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,37</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>6,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 11,62</t>
+          <t>1,94; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,51</t>
+          <t>2,94; 8,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,7</t>
+          <t>2,87; 8,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 20,1</t>
+          <t>4,92; 11,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 22,12</t>
+          <t>5,21; 11,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,4</t>
+          <t>4,14; 9,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,34</t>
+          <t>4,33; 8,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,84</t>
+          <t>4,56; 8,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,67</t>
+          <t>4,18; 7,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>318,84%</t>
+          <t>110,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>458,36%</t>
+          <t>140,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>235,63%</t>
+          <t>143,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>375,61%</t>
+          <t>145,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>410,39%</t>
+          <t>144,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>114,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>354,14%</t>
+          <t>130,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>428,65%</t>
+          <t>143,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>130,1%</t>
+          <t>127,44%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; —</t>
+          <t>40,07; 228,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,36; —</t>
+          <t>58,55; 279,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,35; —</t>
+          <t>55,73; 273,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 1709,69</t>
+          <t>68,61; 251,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 1606,15</t>
+          <t>74,71; 249,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 621,83</t>
+          <t>56,63; 224,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,49; 1238,45</t>
+          <t>74,22; 201,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>119,13; 1249,04</t>
+          <t>79,07; 214,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 581,25</t>
+          <t>70,97; 192,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,26</t>
+          <t>-0,22; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,79</t>
+          <t>-2,77; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,27</t>
+          <t>-2,26; 5,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 11,31</t>
+          <t>1,68; 8,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,88</t>
+          <t>-2,33; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,85</t>
+          <t>3,43; 9,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,07</t>
+          <t>1,7; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,44</t>
+          <t>-1,63; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,04</t>
+          <t>-0,11; 6,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>113,13%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>145,32%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>121,76%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>116,56%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>126,06%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>109,31%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>115,25%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>135,27%</t>
+          <t>50,75%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 225,16</t>
+          <t>-3,12; 92,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,86; 222,18</t>
+          <t>-39,25; 33,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57,5; 279,57</t>
+          <t>-32,99; 104,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,59; 232,4</t>
+          <t>15,76; 111,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,41; 227,23</t>
+          <t>-23,2; 43,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,26; 229,69</t>
+          <t>32,37; 124,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,57; 177,9</t>
+          <t>20,11; 81,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,46; 187,5</t>
+          <t>-19,65; 27,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,74; 202,15</t>
+          <t>1,69; 90,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,46</t>
+          <t>-0,87; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,64</t>
+          <t>-0,89; 4,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,33</t>
+          <t>2,89; 9,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,18</t>
+          <t>0,82; 6,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,06</t>
+          <t>0,26; 6,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,55</t>
+          <t>-3,96; 5,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>0,79; 4,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,72</t>
+          <t>0,57; 4,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,23</t>
+          <t>-0,42; 5,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>114,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>56,43%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 92,86</t>
+          <t>-15,32; 109,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 33,66</t>
+          <t>-14,05; 107,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 131,0</t>
+          <t>41,77; 227,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 111,87</t>
+          <t>7,97; 109,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 43,31</t>
+          <t>0,12; 98,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,68; 127,76</t>
+          <t>-42,29; 78,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 81,0</t>
+          <t>9,97; 92,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 27,2</t>
+          <t>6,92; 90,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,3; 112,74</t>
+          <t>-1,86; 107,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>5,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,3</t>
+          <t>1,55; 6,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,03</t>
+          <t>0,93; 5,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,1</t>
+          <t>4,06; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,94</t>
+          <t>0,2; 6,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,27</t>
+          <t>-0,07; 6,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,54</t>
+          <t>1,01; 7,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,89</t>
+          <t>1,63; 5,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,72</t>
+          <t>1,23; 5,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,88</t>
+          <t>3,51; 7,35</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>116,46%</t>
+          <t>131,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>45,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>70,15%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 109,19</t>
+          <t>22,63; 156,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 107,44</t>
+          <t>16,93; 138,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,34; 225,75</t>
+          <t>59,95; 234,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 109,62</t>
+          <t>1,23; 67,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 98,21</t>
+          <t>-0,7; 67,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 103,67</t>
+          <t>8,19; 77,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 92,81</t>
+          <t>17,67; 74,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 90,24</t>
+          <t>13,08; 72,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,38; 126,01</t>
+          <t>40,42; 103,74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,3</t>
+          <t>1,77; 4,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,43</t>
+          <t>1,15; 3,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,83</t>
+          <t>2,38; 6,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,31</t>
+          <t>3,32; 6,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,17</t>
+          <t>1,77; 4,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,63</t>
+          <t>2,15; 6,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>2,96; 4,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,08</t>
+          <t>1,85; 3,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,42</t>
+          <t>3,08; 5,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>146,49%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>54,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>57,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>69,01%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,63; 156,04</t>
+          <t>30,93; 94,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,93; 138,77</t>
+          <t>21,24; 80,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69,8; 252,92</t>
+          <t>46,39; 139,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,23; 67,71</t>
+          <t>35,59; 83,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 67,13</t>
+          <t>18,96; 60,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,61; 92,13</t>
+          <t>26,27; 80,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,67; 74,87</t>
+          <t>40,59; 75,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,08; 72,19</t>
+          <t>24,64; 58,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>53,95; 118,73</t>
+          <t>44,0; 89,88</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,64</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 4,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 3,5</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,24</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 6,6</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 4,79</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 7,21</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 4,92</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,77</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 6,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>59,48%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>45,61%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>111,56%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>56,8%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>38,47%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>66,51%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>57,91%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>41,28%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>84,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>30,93; 94,82</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>21,24; 80,27</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>77,48; 161,57</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>35,59; 83,3</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>18,96; 60,66</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>43,42; 92,6</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>40,59; 75,44</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>24,64; 58,31</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>64,9; 105,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,08</t>
+          <t>1,75; 6,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,34</t>
+          <t>2,93; 8,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,36</t>
+          <t>2,96; 8,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,45</t>
+          <t>5,11; 11,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,35</t>
+          <t>5,14; 11,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,16</t>
+          <t>4,02; 9,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,26</t>
+          <t>4,23; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,86</t>
+          <t>4,94; 9,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,97</t>
+          <t>4,43; 8,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,07; 228,71</t>
+          <t>35,78; 233,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,55; 279,49</t>
+          <t>57,0; 281,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,73; 273,0</t>
+          <t>58,88; 275,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,61; 251,03</t>
+          <t>72,71; 246,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,71; 249,06</t>
+          <t>75,79; 247,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,63; 224,38</t>
+          <t>54,19; 217,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,22; 201,68</t>
+          <t>74,45; 207,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,07; 214,42</t>
+          <t>88,71; 227,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,97; 192,18</t>
+          <t>76,56; 195,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,46</t>
+          <t>-0,14; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,64</t>
+          <t>-2,6; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,41</t>
+          <t>-2,28; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,18</t>
+          <t>2,04; 7,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,06</t>
+          <t>-2,17; 3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>3,54; 8,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,34</t>
+          <t>1,63; 5,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,72</t>
+          <t>-1,56; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,2</t>
+          <t>0,22; 6,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 92,86</t>
+          <t>-2,77; 91,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 33,66</t>
+          <t>-36,13; 38,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 104,12</t>
+          <t>-32,07; 100,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 111,87</t>
+          <t>19,62; 103,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 43,31</t>
+          <t>-21,84; 44,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 124,47</t>
+          <t>35,61; 120,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,11; 81,0</t>
+          <t>18,92; 80,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 27,2</t>
+          <t>-19,74; 25,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 90,87</t>
+          <t>5,59; 91,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,3</t>
+          <t>-0,84; 4,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,03</t>
+          <t>-0,89; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,19</t>
+          <t>2,96; 9,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,94</t>
+          <t>0,39; 6,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,27</t>
+          <t>0,36; 6,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,34</t>
+          <t>-4,44; 5,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,89</t>
+          <t>0,64; 4,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,72</t>
+          <t>0,69; 4,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,97</t>
+          <t>-0,24; 6,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 109,19</t>
+          <t>-14,1; 116,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 107,44</t>
+          <t>-15,3; 107,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,77; 227,03</t>
+          <t>46,11; 238,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,97; 109,62</t>
+          <t>3,09; 109,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 98,21</t>
+          <t>3,02; 101,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 78,22</t>
+          <t>-43,97; 79,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 92,81</t>
+          <t>7,29; 88,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 90,24</t>
+          <t>9,21; 85,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 107,01</t>
+          <t>-0,42; 104,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,3</t>
+          <t>1,69; 6,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,43</t>
+          <t>1,06; 5,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,08</t>
+          <t>4,18; 9,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,31</t>
+          <t>0,59; 6,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,17</t>
+          <t>-0,24; 5,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,3</t>
+          <t>1,19; 7,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>1,56; 5,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,08</t>
+          <t>1,3; 4,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,35</t>
+          <t>3,66; 7,64</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,63; 156,04</t>
+          <t>26,12; 151,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,93; 138,77</t>
+          <t>13,82; 135,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,95; 234,55</t>
+          <t>69,3; 222,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 67,71</t>
+          <t>4,91; 68,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 67,13</t>
+          <t>-2,11; 61,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,19; 77,99</t>
+          <t>10,43; 79,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,67; 74,87</t>
+          <t>17,29; 74,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,08; 72,19</t>
+          <t>14,79; 69,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,42; 103,74</t>
+          <t>42,95; 111,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,77; 4,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>1,09; 3,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,35</t>
+          <t>2,42; 6,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,37; 6,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,74; 4,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,22</t>
+          <t>2,25; 6,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>3,01; 4,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,89; 3,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,87</t>
+          <t>3,25; 5,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>31,11; 95,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>18,88; 76,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46,39; 139,19</t>
+          <t>47,95; 140,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>36,74; 81,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>18,78; 59,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,27; 80,05</t>
+          <t>26,59; 81,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>41,3; 80,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>26,8; 59,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>44,0; 89,88</t>
+          <t>45,97; 91,81</t>
         </is>
       </c>
     </row>
